--- a/Code/Results/Cases/Case_6_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005556576779976</v>
+        <v>1.011774185405522</v>
       </c>
       <c r="D2">
-        <v>1.021284939937608</v>
+        <v>1.026900787111242</v>
       </c>
       <c r="E2">
-        <v>1.017275905273312</v>
+        <v>1.023118369054126</v>
       </c>
       <c r="F2">
-        <v>1.019985441812196</v>
+        <v>1.026024997681377</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043030607746441</v>
+        <v>1.046147286988457</v>
       </c>
       <c r="J2">
-        <v>1.027572352328797</v>
+        <v>1.033608346589655</v>
       </c>
       <c r="K2">
-        <v>1.032455496923888</v>
+        <v>1.037997653025315</v>
       </c>
       <c r="L2">
-        <v>1.028499693696015</v>
+        <v>1.034264756304622</v>
       </c>
       <c r="M2">
-        <v>1.031173195849084</v>
+        <v>1.037133289183832</v>
       </c>
       <c r="N2">
-        <v>1.029031622933305</v>
+        <v>1.035076188998351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012189664351038</v>
+        <v>1.015945088288887</v>
       </c>
       <c r="D3">
-        <v>1.026242601032504</v>
+        <v>1.029945635110234</v>
       </c>
       <c r="E3">
-        <v>1.023106415085581</v>
+        <v>1.026728494552819</v>
       </c>
       <c r="F3">
-        <v>1.026558707310786</v>
+        <v>1.030275490349719</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044871890759581</v>
+        <v>1.047305389737156</v>
       </c>
       <c r="J3">
-        <v>1.03235345403082</v>
+        <v>1.036010314697142</v>
       </c>
       <c r="K3">
-        <v>1.036550362460902</v>
+        <v>1.040209173577525</v>
       </c>
       <c r="L3">
-        <v>1.033451940816039</v>
+        <v>1.037030430712655</v>
       </c>
       <c r="M3">
-        <v>1.036862678234256</v>
+        <v>1.040535108677953</v>
       </c>
       <c r="N3">
-        <v>1.03381951434814</v>
+        <v>1.037481568176055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016365136573574</v>
+        <v>1.018592399928454</v>
       </c>
       <c r="D4">
-        <v>1.029365298983114</v>
+        <v>1.031880739065935</v>
       </c>
       <c r="E4">
-        <v>1.026782969677887</v>
+        <v>1.029025637501346</v>
       </c>
       <c r="F4">
-        <v>1.030705119982654</v>
+        <v>1.032980668343288</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046019059688595</v>
+        <v>1.048031939345521</v>
       </c>
       <c r="J4">
-        <v>1.035359286446164</v>
+        <v>1.037532177845879</v>
       </c>
       <c r="K4">
-        <v>1.039121772409524</v>
+        <v>1.041609035144327</v>
       </c>
       <c r="L4">
-        <v>1.036568546699687</v>
+        <v>1.038785928734633</v>
       </c>
       <c r="M4">
-        <v>1.040446563985523</v>
+        <v>1.042696696341727</v>
       </c>
       <c r="N4">
-        <v>1.036829615390288</v>
+        <v>1.039005592545024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018094000016546</v>
+        <v>1.019693393387894</v>
       </c>
       <c r="D5">
-        <v>1.030658615387109</v>
+        <v>1.03268608845179</v>
       </c>
       <c r="E5">
-        <v>1.028306699964255</v>
+        <v>1.029982351158401</v>
       </c>
       <c r="F5">
-        <v>1.032423966843866</v>
+        <v>1.03410747482996</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046491134378157</v>
+        <v>1.048332030709221</v>
       </c>
       <c r="J5">
-        <v>1.036602881847563</v>
+        <v>1.038164433063972</v>
       </c>
       <c r="K5">
-        <v>1.040184892209679</v>
+        <v>1.04219027476243</v>
       </c>
       <c r="L5">
-        <v>1.037858736338676</v>
+        <v>1.039516020025888</v>
       </c>
       <c r="M5">
-        <v>1.041931003131164</v>
+        <v>1.043596237654773</v>
       </c>
       <c r="N5">
-        <v>1.038074976839799</v>
+        <v>1.039638745638048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018382768422623</v>
+        <v>1.01987756645128</v>
       </c>
       <c r="D6">
-        <v>1.030874653517561</v>
+        <v>1.032820837908111</v>
       </c>
       <c r="E6">
-        <v>1.028561288524553</v>
+        <v>1.030142467872069</v>
       </c>
       <c r="F6">
-        <v>1.032711179417426</v>
+        <v>1.034296068090577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046569811085969</v>
+        <v>1.048382106829676</v>
       </c>
       <c r="J6">
-        <v>1.036810537953946</v>
+        <v>1.038270155611454</v>
       </c>
       <c r="K6">
-        <v>1.040362368002658</v>
+        <v>1.042287447039283</v>
       </c>
       <c r="L6">
-        <v>1.038074217787141</v>
+        <v>1.039638147862503</v>
       </c>
       <c r="M6">
-        <v>1.042178975144041</v>
+        <v>1.043746744000189</v>
       </c>
       <c r="N6">
-        <v>1.038282927841671</v>
+        <v>1.039744618323674</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016388340098156</v>
+        <v>1.018607157838011</v>
       </c>
       <c r="D7">
-        <v>1.02938265563274</v>
+        <v>1.031891531970522</v>
       </c>
       <c r="E7">
-        <v>1.026803414426257</v>
+        <v>1.029038456157848</v>
       </c>
       <c r="F7">
-        <v>1.030728181158594</v>
+        <v>1.032995765377458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046025407123405</v>
+        <v>1.048035970056648</v>
       </c>
       <c r="J7">
-        <v>1.035375980997131</v>
+        <v>1.037540655406072</v>
       </c>
       <c r="K7">
-        <v>1.039136047152842</v>
+        <v>1.041616829982249</v>
       </c>
       <c r="L7">
-        <v>1.03658586372407</v>
+        <v>1.038795715062117</v>
       </c>
       <c r="M7">
-        <v>1.040466485026183</v>
+        <v>1.042708751786829</v>
       </c>
       <c r="N7">
-        <v>1.036846333649432</v>
+        <v>1.039014082144325</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007823277610542</v>
+        <v>1.013194681993119</v>
       </c>
       <c r="D8">
-        <v>1.022978642870311</v>
+        <v>1.02793722582999</v>
       </c>
       <c r="E8">
-        <v>1.019266974908405</v>
+        <v>1.024346653984574</v>
       </c>
       <c r="F8">
-        <v>1.022229858085024</v>
+        <v>1.027471050068927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043662294716384</v>
+        <v>1.04654346814989</v>
       </c>
       <c r="J8">
-        <v>1.029206951784919</v>
+        <v>1.034426937267564</v>
       </c>
       <c r="K8">
-        <v>1.033856096044786</v>
+        <v>1.038751613420007</v>
       </c>
       <c r="L8">
-        <v>1.030192137116557</v>
+        <v>1.035206631963106</v>
       </c>
       <c r="M8">
-        <v>1.033116901116209</v>
+        <v>1.038291334341661</v>
       </c>
       <c r="N8">
-        <v>1.030668543708141</v>
+        <v>1.035895942168912</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9917685903144039</v>
+        <v>1.003243403104353</v>
       </c>
       <c r="D9">
-        <v>1.010994949281196</v>
+        <v>1.020689023406539</v>
       </c>
       <c r="E9">
-        <v>1.005194675952837</v>
+        <v>1.015767614526173</v>
       </c>
       <c r="F9">
-        <v>1.006372199907071</v>
+        <v>1.017372593692921</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039139430852295</v>
+        <v>1.04373335368154</v>
       </c>
       <c r="J9">
-        <v>1.017615407279825</v>
+        <v>1.028682146038606</v>
       </c>
       <c r="K9">
-        <v>1.023912124693902</v>
+        <v>1.033455122383089</v>
       </c>
       <c r="L9">
-        <v>1.018204031661962</v>
+        <v>1.028609950102179</v>
       </c>
       <c r="M9">
-        <v>1.019362731744396</v>
+        <v>1.030189963291896</v>
       </c>
       <c r="N9">
-        <v>1.019060537880281</v>
+        <v>1.030142992677472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9803114384789199</v>
+        <v>0.9963027979285044</v>
       </c>
       <c r="D10">
-        <v>1.002464435345939</v>
+        <v>1.015651881146023</v>
       </c>
       <c r="E10">
-        <v>0.9951945673927075</v>
+        <v>1.009818264240078</v>
       </c>
       <c r="F10">
-        <v>0.9951085746531848</v>
+        <v>1.010370684455284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035852391795977</v>
+        <v>1.04173089630381</v>
       </c>
       <c r="J10">
-        <v>1.009328589059097</v>
+        <v>1.024663876085636</v>
       </c>
       <c r="K10">
-        <v>1.016789335759946</v>
+        <v>1.029744171894081</v>
       </c>
       <c r="L10">
-        <v>1.00965113086372</v>
+        <v>1.024012481165633</v>
       </c>
       <c r="M10">
-        <v>1.009566710509578</v>
+        <v>1.024555183990504</v>
       </c>
       <c r="N10">
-        <v>1.010761951427169</v>
+        <v>1.026119016320267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9751439365257017</v>
+        <v>0.9932179857080788</v>
       </c>
       <c r="D11">
-        <v>0.9986239452276853</v>
+        <v>1.01341814503573</v>
       </c>
       <c r="E11">
-        <v>0.9906956589188641</v>
+        <v>1.007182659010738</v>
       </c>
       <c r="F11">
-        <v>0.9900419424067569</v>
+        <v>1.007268749748165</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034356762326772</v>
+        <v>1.040831295189143</v>
       </c>
       <c r="J11">
-        <v>1.005588604818856</v>
+        <v>1.022875651687742</v>
       </c>
       <c r="K11">
-        <v>1.013571858666367</v>
+        <v>1.028091374844179</v>
       </c>
       <c r="L11">
-        <v>1.005795200786181</v>
+        <v>1.021970380302507</v>
       </c>
       <c r="M11">
-        <v>1.005154128626577</v>
+        <v>1.022054877722251</v>
       </c>
       <c r="N11">
-        <v>1.007016655980324</v>
+        <v>1.024328252438615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9731907986557917</v>
+        <v>0.992059587936025</v>
       </c>
       <c r="D12">
-        <v>0.9971736072718406</v>
+        <v>1.012580168384442</v>
       </c>
       <c r="E12">
-        <v>0.9889970730965919</v>
+        <v>1.006194290691113</v>
       </c>
       <c r="F12">
-        <v>0.9881290677290897</v>
+        <v>1.006105472232526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03378959550691</v>
+        <v>1.040492082566605</v>
       </c>
       <c r="J12">
-        <v>1.004174763928902</v>
+        <v>1.022203843919945</v>
       </c>
       <c r="K12">
-        <v>1.012355157575163</v>
+        <v>1.027470256789104</v>
       </c>
       <c r="L12">
-        <v>1.004338152002221</v>
+        <v>1.021203772337643</v>
       </c>
       <c r="M12">
-        <v>1.003487285524604</v>
+        <v>1.021116628431684</v>
       </c>
       <c r="N12">
-        <v>1.005600807274136</v>
+        <v>1.023655490626731</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9736113246547535</v>
+        <v>0.9923086469994642</v>
       </c>
       <c r="D13">
-        <v>0.997485817638457</v>
+        <v>1.012760297404699</v>
       </c>
       <c r="E13">
-        <v>0.9893627064396123</v>
+        <v>1.006406731346283</v>
       </c>
       <c r="F13">
-        <v>0.9885408265711246</v>
+        <v>1.006355509932731</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033911793821611</v>
+        <v>1.040565076755451</v>
       </c>
       <c r="J13">
-        <v>1.004479184795271</v>
+        <v>1.02234829752912</v>
       </c>
       <c r="K13">
-        <v>1.012617148041312</v>
+        <v>1.027603819279663</v>
       </c>
       <c r="L13">
-        <v>1.004651847990965</v>
+        <v>1.021368584109128</v>
       </c>
       <c r="M13">
-        <v>1.003846124837259</v>
+        <v>1.021318324588906</v>
       </c>
       <c r="N13">
-        <v>1.005905660453053</v>
+        <v>1.0238001493766</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9749831935518724</v>
+        <v>0.9931224921545944</v>
       </c>
       <c r="D14">
-        <v>0.9985045564574869</v>
+        <v>1.013349048452254</v>
       </c>
       <c r="E14">
-        <v>0.9905558272833767</v>
+        <v>1.007101154363231</v>
       </c>
       <c r="F14">
-        <v>0.9898844691215335</v>
+        <v>1.007172822242596</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034310121946787</v>
+        <v>1.040803360052198</v>
       </c>
       <c r="J14">
-        <v>1.005472250463241</v>
+        <v>1.02282027647429</v>
       </c>
       <c r="K14">
-        <v>1.013471735829875</v>
+        <v>1.02804018159201</v>
       </c>
       <c r="L14">
-        <v>1.005675277906185</v>
+        <v>1.021907179276736</v>
       </c>
       <c r="M14">
-        <v>1.005016927540407</v>
+        <v>1.021977518725679</v>
       </c>
       <c r="N14">
-        <v>1.006900136388178</v>
+        <v>1.024272798586009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9758238966353658</v>
+        <v>0.9936222453324164</v>
       </c>
       <c r="D15">
-        <v>0.9991290239430609</v>
+        <v>1.013710690665051</v>
       </c>
       <c r="E15">
-        <v>0.9912872377161872</v>
+        <v>1.007527753531203</v>
       </c>
       <c r="F15">
-        <v>0.9907081589216434</v>
+        <v>1.007674909829985</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034553980689501</v>
+        <v>1.040949498260181</v>
       </c>
       <c r="J15">
-        <v>1.006080786537719</v>
+        <v>1.023110063513903</v>
       </c>
       <c r="K15">
-        <v>1.013995365240657</v>
+        <v>1.028308076186131</v>
       </c>
       <c r="L15">
-        <v>1.00630250281407</v>
+        <v>1.022237943496621</v>
       </c>
       <c r="M15">
-        <v>1.005734543736722</v>
+        <v>1.022382394055524</v>
       </c>
       <c r="N15">
-        <v>1.007509536653682</v>
+        <v>1.024562997156458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9806498168111693</v>
+        <v>0.9965058001323612</v>
       </c>
       <c r="D16">
-        <v>1.002716078522085</v>
+        <v>1.015798987806319</v>
       </c>
       <c r="E16">
-        <v>0.9954894123174755</v>
+        <v>1.009991889489472</v>
       </c>
       <c r="F16">
-        <v>0.9954406372760238</v>
+        <v>1.010575026944365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035950065307839</v>
+        <v>1.041789899991797</v>
       </c>
       <c r="J16">
-        <v>1.009573449607915</v>
+        <v>1.024781509848317</v>
       </c>
       <c r="K16">
-        <v>1.01699993177673</v>
+        <v>1.029852870111576</v>
       </c>
       <c r="L16">
-        <v>1.009903668414424</v>
+        <v>1.024146895922342</v>
       </c>
       <c r="M16">
-        <v>1.009855781874311</v>
+        <v>1.024719810682485</v>
       </c>
       <c r="N16">
-        <v>1.011007159706051</v>
+        <v>1.026236817136383</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9836199139288175</v>
+        <v>0.9982928726298129</v>
       </c>
       <c r="D17">
-        <v>1.004925675683125</v>
+        <v>1.017094584765091</v>
       </c>
       <c r="E17">
-        <v>0.9980787032534053</v>
+        <v>1.011521339744063</v>
       </c>
       <c r="F17">
-        <v>0.9983568447836417</v>
+        <v>1.012375055237736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036805921092235</v>
+        <v>1.042308234542461</v>
       </c>
       <c r="J17">
-        <v>1.011722440547878</v>
+        <v>1.025816811662708</v>
       </c>
       <c r="K17">
-        <v>1.018847887667896</v>
+        <v>1.030809378919773</v>
       </c>
       <c r="L17">
-        <v>1.012120503832709</v>
+        <v>1.025330329435452</v>
       </c>
       <c r="M17">
-        <v>1.012393745932417</v>
+        <v>1.026169529120379</v>
       </c>
       <c r="N17">
-        <v>1.013159202459641</v>
+        <v>1.027273589198102</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9853325954098319</v>
+        <v>0.9993276165867433</v>
       </c>
       <c r="D18">
-        <v>1.006200469092135</v>
+        <v>1.017845233042844</v>
       </c>
       <c r="E18">
-        <v>0.9995728626430538</v>
+        <v>1.012407733274887</v>
       </c>
       <c r="F18">
-        <v>1.000039723347729</v>
+        <v>1.013418260587536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037298204994249</v>
+        <v>1.042607444581294</v>
       </c>
       <c r="J18">
-        <v>1.012961405526595</v>
+        <v>1.026416049845457</v>
       </c>
       <c r="K18">
-        <v>1.019913025848995</v>
+        <v>1.031362883523928</v>
       </c>
       <c r="L18">
-        <v>1.013398973109515</v>
+        <v>1.026015675779205</v>
       </c>
       <c r="M18">
-        <v>1.013857771150173</v>
+        <v>1.027009328418346</v>
       </c>
       <c r="N18">
-        <v>1.01439992691074</v>
+        <v>1.027873678367804</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859133059983535</v>
+        <v>0.9996791623361754</v>
       </c>
       <c r="D19">
-        <v>1.006632811892051</v>
+        <v>1.018100338517415</v>
       </c>
       <c r="E19">
-        <v>1.000079657284002</v>
+        <v>1.012709015397785</v>
       </c>
       <c r="F19">
-        <v>1.000610541871146</v>
+        <v>1.013772842994083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037464908599586</v>
+        <v>1.042708942409444</v>
       </c>
       <c r="J19">
-        <v>1.013381452995722</v>
+        <v>1.026619597856655</v>
       </c>
       <c r="K19">
-        <v>1.020274093685879</v>
+        <v>1.03155087480133</v>
       </c>
       <c r="L19">
-        <v>1.013832479833582</v>
+        <v>1.026248535561772</v>
       </c>
       <c r="M19">
-        <v>1.014354257990101</v>
+        <v>1.02729470817672</v>
       </c>
       <c r="N19">
-        <v>1.014820570895453</v>
+        <v>1.028077515440526</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833033093186609</v>
+        <v>0.9981019297241611</v>
       </c>
       <c r="D20">
-        <v>1.004690069853506</v>
+        <v>1.016956104520499</v>
       </c>
       <c r="E20">
-        <v>0.9978025799002925</v>
+        <v>1.011357837860657</v>
       </c>
       <c r="F20">
-        <v>0.9980458518526348</v>
+        <v>1.01218262829118</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036714817080369</v>
+        <v>1.04225294668557</v>
       </c>
       <c r="J20">
-        <v>1.01149338717027</v>
+        <v>1.025706215382194</v>
       </c>
       <c r="K20">
-        <v>1.018650948334304</v>
+        <v>1.030707212880747</v>
       </c>
       <c r="L20">
-        <v>1.011884178655267</v>
+        <v>1.025203870749809</v>
       </c>
       <c r="M20">
-        <v>1.012123149852316</v>
+        <v>1.02601459080853</v>
       </c>
       <c r="N20">
-        <v>1.012929823799965</v>
+        <v>1.027162835858184</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9745801656401212</v>
+        <v>0.992883186967853</v>
       </c>
       <c r="D21">
-        <v>0.9982052356958149</v>
+        <v>1.013175907188215</v>
       </c>
       <c r="E21">
-        <v>0.990205260157786</v>
+        <v>1.006896926965586</v>
       </c>
       <c r="F21">
-        <v>0.989489673977168</v>
+        <v>1.0069324546549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034193151628742</v>
+        <v>1.04073333271687</v>
       </c>
       <c r="J21">
-        <v>1.005180513580257</v>
+        <v>1.022681502458427</v>
       </c>
       <c r="K21">
-        <v>1.013220690401267</v>
+        <v>1.027911884864481</v>
       </c>
       <c r="L21">
-        <v>1.005374603648344</v>
+        <v>1.021748802527222</v>
       </c>
       <c r="M21">
-        <v>1.004672941602419</v>
+        <v>1.021783669139256</v>
       </c>
       <c r="N21">
-        <v>1.006607985205358</v>
+        <v>1.024133827495126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9688990507888764</v>
+        <v>0.9895289446543163</v>
       </c>
       <c r="D22">
-        <v>0.9939891849818837</v>
+        <v>1.010751117573356</v>
       </c>
       <c r="E22">
-        <v>0.9852682284097739</v>
+        <v>1.004037621260397</v>
       </c>
       <c r="F22">
-        <v>0.9839298508038482</v>
+        <v>1.003567051172689</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032539989562527</v>
+        <v>1.039748516824433</v>
       </c>
       <c r="J22">
-        <v>1.001067698713675</v>
+        <v>1.020735703293385</v>
       </c>
       <c r="K22">
-        <v>1.009680665191276</v>
+        <v>1.026112559612036</v>
       </c>
       <c r="L22">
-        <v>1.001137284670605</v>
+        <v>1.019529514196641</v>
       </c>
       <c r="M22">
-        <v>0.9998265269934853</v>
+        <v>1.019068173738817</v>
       </c>
       <c r="N22">
-        <v>1.002489329669918</v>
+        <v>1.022185265072083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9719303243698838</v>
+        <v>0.9913142301472737</v>
       </c>
       <c r="D23">
-        <v>0.9962379915398412</v>
+        <v>1.012041223828188</v>
       </c>
       <c r="E23">
-        <v>0.9879014141510948</v>
+        <v>1.005558721472517</v>
       </c>
       <c r="F23">
-        <v>0.9868951933182126</v>
+        <v>1.005357415134653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033423054892177</v>
+        <v>1.040273431860348</v>
       </c>
       <c r="J23">
-        <v>1.003262271411943</v>
+        <v>1.021771497604463</v>
       </c>
       <c r="K23">
-        <v>1.011569795733564</v>
+        <v>1.027070480753229</v>
       </c>
       <c r="L23">
-        <v>1.003397949124104</v>
+        <v>1.020710578656452</v>
       </c>
       <c r="M23">
-        <v>1.002411858866484</v>
+        <v>1.020513112638583</v>
       </c>
       <c r="N23">
-        <v>1.004687018913139</v>
+        <v>1.02322253032989</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834464300745916</v>
+        <v>0.9981882321234063</v>
       </c>
       <c r="D24">
-        <v>1.004796573204111</v>
+        <v>1.017018693366982</v>
       </c>
       <c r="E24">
-        <v>0.9979273978474331</v>
+        <v>1.011431734934017</v>
       </c>
       <c r="F24">
-        <v>0.9981864319124999</v>
+        <v>1.012269598474431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036756004397541</v>
+        <v>1.042277938535074</v>
       </c>
       <c r="J24">
-        <v>1.011596931220327</v>
+        <v>1.025756203383364</v>
       </c>
       <c r="K24">
-        <v>1.018739976006425</v>
+        <v>1.030753390925531</v>
       </c>
       <c r="L24">
-        <v>1.011991008727301</v>
+        <v>1.025261027196738</v>
       </c>
       <c r="M24">
-        <v>1.012245470867383</v>
+        <v>1.026084618644395</v>
       </c>
       <c r="N24">
-        <v>1.013033514894449</v>
+        <v>1.027212894848049</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9960434843008116</v>
+        <v>1.005867885182829</v>
       </c>
       <c r="D25">
-        <v>1.014182778593467</v>
+        <v>1.022597715886629</v>
       </c>
       <c r="E25">
-        <v>1.008934904460447</v>
+        <v>1.018024459764019</v>
       </c>
       <c r="F25">
-        <v>1.010585906397943</v>
+        <v>1.020028854118896</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040354177041403</v>
+        <v>1.044481970456856</v>
       </c>
       <c r="J25">
-        <v>1.020704738588081</v>
+        <v>1.030199372530655</v>
       </c>
       <c r="K25">
-        <v>1.026564843665197</v>
+        <v>1.034855074707248</v>
       </c>
       <c r="L25">
-        <v>1.021396083057791</v>
+        <v>1.030349267468978</v>
       </c>
       <c r="M25">
-        <v>1.023022082730124</v>
+        <v>1.032324005345019</v>
       </c>
       <c r="N25">
-        <v>1.022154256393346</v>
+        <v>1.031662373805168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011774185405522</v>
+        <v>1.008200977302683</v>
       </c>
       <c r="D2">
-        <v>1.026900787111242</v>
+        <v>1.025382008890122</v>
       </c>
       <c r="E2">
-        <v>1.023118369054126</v>
+        <v>1.020005526332485</v>
       </c>
       <c r="F2">
-        <v>1.026024997681377</v>
+        <v>1.022738712159331</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046147286988457</v>
+        <v>1.044957166238515</v>
       </c>
       <c r="J2">
-        <v>1.033608346589655</v>
+        <v>1.030139135117828</v>
       </c>
       <c r="K2">
-        <v>1.037997653025315</v>
+        <v>1.036498704420025</v>
       </c>
       <c r="L2">
-        <v>1.034264756304622</v>
+        <v>1.031193014160446</v>
       </c>
       <c r="M2">
-        <v>1.037133289183832</v>
+        <v>1.033890095431965</v>
       </c>
       <c r="N2">
-        <v>1.035076188998351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013940648653203</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036878003869605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015945088288887</v>
+        <v>1.011637100864004</v>
       </c>
       <c r="D3">
-        <v>1.029945635110234</v>
+        <v>1.027595997669864</v>
       </c>
       <c r="E3">
-        <v>1.026728494552819</v>
+        <v>1.02295613350566</v>
       </c>
       <c r="F3">
-        <v>1.030275490349719</v>
+        <v>1.026301565259756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047305389737156</v>
+        <v>1.045682725899902</v>
       </c>
       <c r="J3">
-        <v>1.036010314697142</v>
+        <v>1.031815476707681</v>
       </c>
       <c r="K3">
-        <v>1.040209173577525</v>
+        <v>1.037887550517439</v>
       </c>
       <c r="L3">
-        <v>1.037030430712655</v>
+        <v>1.033303476066895</v>
       </c>
       <c r="M3">
-        <v>1.040535108677953</v>
+        <v>1.036608619414418</v>
       </c>
       <c r="N3">
-        <v>1.037481568176055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014504335264251</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037857371303172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018592399928454</v>
+        <v>1.013824482533344</v>
       </c>
       <c r="D4">
-        <v>1.031880739065935</v>
+        <v>1.029009471292627</v>
       </c>
       <c r="E4">
-        <v>1.029025637501346</v>
+        <v>1.024840095438621</v>
       </c>
       <c r="F4">
-        <v>1.032980668343288</v>
+        <v>1.028576460368165</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048031939345521</v>
+        <v>1.046137287090028</v>
       </c>
       <c r="J4">
-        <v>1.037532177845879</v>
+        <v>1.032881047717546</v>
       </c>
       <c r="K4">
-        <v>1.041609035144327</v>
+        <v>1.038769944312052</v>
       </c>
       <c r="L4">
-        <v>1.038785928734633</v>
+        <v>1.034647688419133</v>
       </c>
       <c r="M4">
-        <v>1.042696696341727</v>
+        <v>1.038341805137523</v>
       </c>
       <c r="N4">
-        <v>1.039005592545024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014862632850297</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038482199089812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019693393387894</v>
+        <v>1.014738181602067</v>
       </c>
       <c r="D5">
-        <v>1.03268608845179</v>
+        <v>1.029602950252585</v>
       </c>
       <c r="E5">
-        <v>1.029982351158401</v>
+        <v>1.025628530690684</v>
       </c>
       <c r="F5">
-        <v>1.03410747482996</v>
+        <v>1.029528128361679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048332030709221</v>
+        <v>1.046326703813197</v>
       </c>
       <c r="J5">
-        <v>1.038164433063972</v>
+        <v>1.033326983641526</v>
       </c>
       <c r="K5">
-        <v>1.04219027476243</v>
+        <v>1.039140771460954</v>
       </c>
       <c r="L5">
-        <v>1.039516020025888</v>
+        <v>1.035210076766076</v>
       </c>
       <c r="M5">
-        <v>1.043596237654773</v>
+        <v>1.039066768899466</v>
       </c>
       <c r="N5">
-        <v>1.039638745638048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015012775939509</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038751588383026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01987756645128</v>
+        <v>1.014894164034291</v>
       </c>
       <c r="D6">
-        <v>1.032820837908111</v>
+        <v>1.029706874232057</v>
       </c>
       <c r="E6">
-        <v>1.030142467872069</v>
+        <v>1.025763378891828</v>
       </c>
       <c r="F6">
-        <v>1.034296068090577</v>
+        <v>1.029690419843538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048382106829676</v>
+        <v>1.046360545359096</v>
       </c>
       <c r="J6">
-        <v>1.038270155611454</v>
+        <v>1.033404579452702</v>
       </c>
       <c r="K6">
-        <v>1.042287447039283</v>
+        <v>1.039207299676113</v>
       </c>
       <c r="L6">
-        <v>1.039638147862503</v>
+        <v>1.03530699096426</v>
       </c>
       <c r="M6">
-        <v>1.043746744000189</v>
+        <v>1.039191024641936</v>
       </c>
       <c r="N6">
-        <v>1.039744618323674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01503914681809</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03880738849993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018607157838011</v>
+        <v>1.013844925240027</v>
       </c>
       <c r="D7">
-        <v>1.031891531970522</v>
+        <v>1.029029572248851</v>
       </c>
       <c r="E7">
-        <v>1.029038456157848</v>
+        <v>1.024858197044507</v>
       </c>
       <c r="F7">
-        <v>1.032995765377458</v>
+        <v>1.028597029588576</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048035970056648</v>
+        <v>1.046145847935767</v>
       </c>
       <c r="J7">
-        <v>1.037540655406072</v>
+        <v>1.032895022882451</v>
       </c>
       <c r="K7">
-        <v>1.041616829982249</v>
+        <v>1.038786931013842</v>
       </c>
       <c r="L7">
-        <v>1.038795715062117</v>
+        <v>1.034662680474158</v>
       </c>
       <c r="M7">
-        <v>1.042708751786829</v>
+        <v>1.038359252975084</v>
       </c>
       <c r="N7">
-        <v>1.039014082144325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014868004973973</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038514356017751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013194681993119</v>
+        <v>1.009380040644831</v>
       </c>
       <c r="D8">
-        <v>1.02793722582999</v>
+        <v>1.026149257918775</v>
       </c>
       <c r="E8">
-        <v>1.024346653984574</v>
+        <v>1.021017432758248</v>
       </c>
       <c r="F8">
-        <v>1.027471050068927</v>
+        <v>1.023958996492634</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04654346814989</v>
+        <v>1.045212941125803</v>
       </c>
       <c r="J8">
-        <v>1.034426937267564</v>
+        <v>1.030719603203681</v>
       </c>
       <c r="K8">
-        <v>1.038751613420007</v>
+        <v>1.036986297987422</v>
       </c>
       <c r="L8">
-        <v>1.035206631963106</v>
+        <v>1.031920040890613</v>
       </c>
       <c r="M8">
-        <v>1.038291334341661</v>
+        <v>1.034823920547194</v>
       </c>
       <c r="N8">
-        <v>1.035895942168912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014136707834713</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037245727868999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003243403104353</v>
+        <v>1.00121219830488</v>
       </c>
       <c r="D9">
-        <v>1.020689023406539</v>
+        <v>1.020903114212608</v>
       </c>
       <c r="E9">
-        <v>1.015767614526173</v>
+        <v>1.01403621776428</v>
       </c>
       <c r="F9">
-        <v>1.017372593692921</v>
+        <v>1.015530013933002</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04373335368154</v>
+        <v>1.043442864296323</v>
       </c>
       <c r="J9">
-        <v>1.028682146038606</v>
+        <v>1.026722223223994</v>
       </c>
       <c r="K9">
-        <v>1.033455122383089</v>
+        <v>1.033665918044445</v>
       </c>
       <c r="L9">
-        <v>1.028609950102179</v>
+        <v>1.026905599112686</v>
       </c>
       <c r="M9">
-        <v>1.030189963291896</v>
+        <v>1.02837605403686</v>
       </c>
       <c r="N9">
-        <v>1.030142992677472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012791782862799</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034894809136901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9963027979285044</v>
+        <v>0.9955602951742308</v>
       </c>
       <c r="D10">
-        <v>1.015651881146023</v>
+        <v>1.017300371122896</v>
       </c>
       <c r="E10">
-        <v>1.009818264240078</v>
+        <v>1.009238132475745</v>
       </c>
       <c r="F10">
-        <v>1.010370684455284</v>
+        <v>1.009734872492539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04173089630381</v>
+        <v>1.042182882812453</v>
       </c>
       <c r="J10">
-        <v>1.024663876085636</v>
+        <v>1.023951174779216</v>
       </c>
       <c r="K10">
-        <v>1.029744171894081</v>
+        <v>1.031364133117006</v>
       </c>
       <c r="L10">
-        <v>1.024012481165633</v>
+        <v>1.023442569101151</v>
       </c>
       <c r="M10">
-        <v>1.024555183990504</v>
+        <v>1.023930557524452</v>
       </c>
       <c r="N10">
-        <v>1.026119016320267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011859848011569</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033284153284049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9932179857080788</v>
+        <v>0.9930697801958253</v>
       </c>
       <c r="D11">
-        <v>1.01341814503573</v>
+        <v>1.015727420708906</v>
       </c>
       <c r="E11">
-        <v>1.007182659010738</v>
+        <v>1.007132730485292</v>
       </c>
       <c r="F11">
-        <v>1.007268749748165</v>
+        <v>1.007189710213398</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040831295189143</v>
+        <v>1.041624447145828</v>
       </c>
       <c r="J11">
-        <v>1.022875651687742</v>
+        <v>1.022733733669969</v>
       </c>
       <c r="K11">
-        <v>1.028091374844179</v>
+        <v>1.030358713149373</v>
       </c>
       <c r="L11">
-        <v>1.021970380302507</v>
+        <v>1.021921375988108</v>
       </c>
       <c r="M11">
-        <v>1.022054877722251</v>
+        <v>1.021977300992227</v>
       </c>
       <c r="N11">
-        <v>1.024328252438615</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011451469218746</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032606216082201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.992059587936025</v>
+        <v>0.9921306302748814</v>
       </c>
       <c r="D12">
-        <v>1.012580168384442</v>
+        <v>1.015130738129478</v>
       </c>
       <c r="E12">
-        <v>1.006194290691113</v>
+        <v>1.006339600656019</v>
       </c>
       <c r="F12">
-        <v>1.006105472232526</v>
+        <v>1.006231696908005</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040492082566605</v>
+        <v>1.041409837108698</v>
       </c>
       <c r="J12">
-        <v>1.022203843919945</v>
+        <v>1.022271810777063</v>
       </c>
       <c r="K12">
-        <v>1.027470256789104</v>
+        <v>1.029973686949072</v>
       </c>
       <c r="L12">
-        <v>1.021203772337643</v>
+        <v>1.021346343511231</v>
       </c>
       <c r="M12">
-        <v>1.021116628431684</v>
+        <v>1.021240473426188</v>
       </c>
       <c r="N12">
-        <v>1.023655490626731</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011295985610489</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032333988420891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9923086469994642</v>
+        <v>0.9923313430271805</v>
       </c>
       <c r="D13">
-        <v>1.012760297404699</v>
+        <v>1.015257325986365</v>
       </c>
       <c r="E13">
-        <v>1.006406731346283</v>
+        <v>1.006508958975771</v>
       </c>
       <c r="F13">
-        <v>1.006355509932731</v>
+        <v>1.006436444625992</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040565076755451</v>
+        <v>1.041455210404015</v>
       </c>
       <c r="J13">
-        <v>1.02234829752912</v>
+        <v>1.022370015262061</v>
       </c>
       <c r="K13">
-        <v>1.027603819279663</v>
+        <v>1.030054870439251</v>
       </c>
       <c r="L13">
-        <v>1.021368584109128</v>
+        <v>1.021468892375381</v>
       </c>
       <c r="M13">
-        <v>1.021318324588906</v>
+        <v>1.02139773945804</v>
       </c>
       <c r="N13">
-        <v>1.0238001493766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011328932544279</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032388886649515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9931224921545944</v>
+        <v>0.9929918434526838</v>
       </c>
       <c r="D14">
-        <v>1.013349048452254</v>
+        <v>1.015677503765889</v>
       </c>
       <c r="E14">
-        <v>1.007101154363231</v>
+        <v>1.007066847283412</v>
       </c>
       <c r="F14">
-        <v>1.007172822242596</v>
+        <v>1.007110208201771</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040803360052198</v>
+        <v>1.041606428170326</v>
       </c>
       <c r="J14">
-        <v>1.02282027647429</v>
+        <v>1.022695179752369</v>
       </c>
       <c r="K14">
-        <v>1.02804018159201</v>
+        <v>1.030326289489589</v>
       </c>
       <c r="L14">
-        <v>1.021907179276736</v>
+        <v>1.021873508197633</v>
       </c>
       <c r="M14">
-        <v>1.021977518725679</v>
+        <v>1.021916065280401</v>
       </c>
       <c r="N14">
-        <v>1.024272798586009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011438445651795</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032582219736947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1044,93 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9936222453324164</v>
+        <v>0.9933999047676749</v>
       </c>
       <c r="D15">
-        <v>1.013710690665051</v>
+        <v>1.015938993823946</v>
       </c>
       <c r="E15">
-        <v>1.007527753531203</v>
+        <v>1.007411858899792</v>
       </c>
       <c r="F15">
-        <v>1.007674909829985</v>
+        <v>1.007526514774733</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040949498260181</v>
+        <v>1.041700779186248</v>
       </c>
       <c r="J15">
-        <v>1.023110063513903</v>
+        <v>1.022897088492109</v>
       </c>
       <c r="K15">
-        <v>1.028308076186131</v>
+        <v>1.030496162545683</v>
       </c>
       <c r="L15">
-        <v>1.022237943496621</v>
+        <v>1.022124180526652</v>
       </c>
       <c r="M15">
-        <v>1.022382394055524</v>
+        <v>1.022236727521364</v>
       </c>
       <c r="N15">
-        <v>1.024562997156458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01150666171835</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032708218455676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9965058001323612</v>
+        <v>0.9957436396703685</v>
       </c>
       <c r="D16">
-        <v>1.015798987806319</v>
+        <v>1.017431687923605</v>
       </c>
       <c r="E16">
-        <v>1.009991889489472</v>
+        <v>1.009394816784024</v>
       </c>
       <c r="F16">
-        <v>1.010575026944365</v>
+        <v>1.009921241847326</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041789899991797</v>
+        <v>1.042233305943328</v>
       </c>
       <c r="J16">
-        <v>1.024781509848317</v>
+        <v>1.024049825010123</v>
       </c>
       <c r="K16">
-        <v>1.029852870111576</v>
+        <v>1.031457407394262</v>
       </c>
       <c r="L16">
-        <v>1.024146895922342</v>
+        <v>1.023560306064688</v>
       </c>
       <c r="M16">
-        <v>1.024719810682485</v>
+        <v>1.024077487808047</v>
       </c>
       <c r="N16">
-        <v>1.026236817136383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011894776587202</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033391035799647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9982928726298129</v>
+        <v>0.9971991089738425</v>
       </c>
       <c r="D17">
-        <v>1.017094584765091</v>
+        <v>1.01836035957064</v>
       </c>
       <c r="E17">
-        <v>1.011521339744063</v>
+        <v>1.010628397318657</v>
       </c>
       <c r="F17">
-        <v>1.012375055237736</v>
+        <v>1.011410810038105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042308234542461</v>
+        <v>1.042561797472508</v>
       </c>
       <c r="J17">
-        <v>1.025816811662708</v>
+        <v>1.024765348433921</v>
       </c>
       <c r="K17">
-        <v>1.030809378919773</v>
+        <v>1.032053945540587</v>
       </c>
       <c r="L17">
-        <v>1.025330329435452</v>
+        <v>1.024452603691113</v>
       </c>
       <c r="M17">
-        <v>1.026169529120379</v>
+        <v>1.0252216813907</v>
       </c>
       <c r="N17">
-        <v>1.027273589198102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012135690510601</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.0338154093369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9993276165867433</v>
+        <v>0.9980369696265867</v>
       </c>
       <c r="D18">
-        <v>1.017845233042844</v>
+        <v>1.018890832745348</v>
       </c>
       <c r="E18">
-        <v>1.012407733274887</v>
+        <v>1.011338837406029</v>
       </c>
       <c r="F18">
-        <v>1.013418260587536</v>
+        <v>1.012269548164094</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042607444581294</v>
+        <v>1.04274717243948</v>
       </c>
       <c r="J18">
-        <v>1.026416049845457</v>
+        <v>1.025174343564602</v>
       </c>
       <c r="K18">
-        <v>1.031362883523928</v>
+        <v>1.032391262694826</v>
       </c>
       <c r="L18">
-        <v>1.026015675779205</v>
+        <v>1.024964676581891</v>
       </c>
       <c r="M18">
-        <v>1.027009328418346</v>
+        <v>1.02587980157945</v>
       </c>
       <c r="N18">
-        <v>1.027873678367804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012272846671501</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.03404223059865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9996791623361754</v>
+        <v>0.998326355174907</v>
       </c>
       <c r="D19">
-        <v>1.018100338517415</v>
+        <v>1.019077821132767</v>
       </c>
       <c r="E19">
-        <v>1.012709015397785</v>
+        <v>1.011584690364927</v>
       </c>
       <c r="F19">
-        <v>1.013772842994083</v>
+        <v>1.012565993219146</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042708942409444</v>
+        <v>1.042813334478121</v>
       </c>
       <c r="J19">
-        <v>1.026619597856655</v>
+        <v>1.025317742273366</v>
       </c>
       <c r="K19">
-        <v>1.03155087480133</v>
+        <v>1.032512353651815</v>
       </c>
       <c r="L19">
-        <v>1.026248535561772</v>
+        <v>1.025142921500348</v>
       </c>
       <c r="M19">
-        <v>1.02729470817672</v>
+        <v>1.026107890581847</v>
       </c>
       <c r="N19">
-        <v>1.028077515440526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012321367488022</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034134259372875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981019297241611</v>
+        <v>0.9970430302900163</v>
       </c>
       <c r="D20">
-        <v>1.016956104520499</v>
+        <v>1.018260343722665</v>
       </c>
       <c r="E20">
-        <v>1.011357837860657</v>
+        <v>1.01049599821279</v>
       </c>
       <c r="F20">
-        <v>1.01218262829118</v>
+        <v>1.011251013649773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04225294668557</v>
+        <v>1.042526428007192</v>
       </c>
       <c r="J20">
-        <v>1.025706215382194</v>
+        <v>1.024688415965503</v>
       </c>
       <c r="K20">
-        <v>1.030707212880747</v>
+        <v>1.031989530593985</v>
       </c>
       <c r="L20">
-        <v>1.025203870749809</v>
+        <v>1.024356765216939</v>
       </c>
       <c r="M20">
-        <v>1.02601459080853</v>
+        <v>1.025098871057121</v>
       </c>
       <c r="N20">
-        <v>1.027162835858184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012109744356123</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03376852559392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.992883186967853</v>
+        <v>0.9928038980014949</v>
       </c>
       <c r="D21">
-        <v>1.013175907188215</v>
+        <v>1.015562898072827</v>
       </c>
       <c r="E21">
-        <v>1.006896926965586</v>
+        <v>1.0069085727984</v>
       </c>
       <c r="F21">
-        <v>1.0069324546549</v>
+        <v>1.006918075135869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04073333271687</v>
+        <v>1.041566506704622</v>
       </c>
       <c r="J21">
-        <v>1.022681502458427</v>
+        <v>1.022605597060884</v>
       </c>
       <c r="K21">
-        <v>1.027911884864481</v>
+        <v>1.030255305708949</v>
       </c>
       <c r="L21">
-        <v>1.021748802527222</v>
+        <v>1.021760231654873</v>
       </c>
       <c r="M21">
-        <v>1.021783669139256</v>
+        <v>1.021769557178095</v>
       </c>
       <c r="N21">
-        <v>1.024133827495126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011408881747102</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032545590462138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9895289446543163</v>
+        <v>0.9900815423011605</v>
       </c>
       <c r="D22">
-        <v>1.010751117573356</v>
+        <v>1.013830143729505</v>
       </c>
       <c r="E22">
-        <v>1.004037621260397</v>
+        <v>1.004611370301453</v>
       </c>
       <c r="F22">
-        <v>1.003567051172689</v>
+        <v>1.004144075317787</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039748516824433</v>
+        <v>1.040938987693841</v>
       </c>
       <c r="J22">
-        <v>1.020735703293385</v>
+        <v>1.021263324715156</v>
       </c>
       <c r="K22">
-        <v>1.026112559612036</v>
+        <v>1.029132512932686</v>
       </c>
       <c r="L22">
-        <v>1.019529514196641</v>
+        <v>1.020092025234148</v>
       </c>
       <c r="M22">
-        <v>1.019068173738817</v>
+        <v>1.019633881868523</v>
       </c>
       <c r="N22">
-        <v>1.022185265072083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010956465684822</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031738173994851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9913142301472737</v>
+        <v>0.9915219292173052</v>
       </c>
       <c r="D23">
-        <v>1.012041223828188</v>
+        <v>1.014740418468798</v>
       </c>
       <c r="E23">
-        <v>1.005558721472517</v>
+        <v>1.005825500072125</v>
       </c>
       <c r="F23">
-        <v>1.005357415134653</v>
+        <v>1.005611455606177</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040273431860348</v>
+        <v>1.041268004356131</v>
       </c>
       <c r="J23">
-        <v>1.021771497604463</v>
+        <v>1.021970088889838</v>
       </c>
       <c r="K23">
-        <v>1.027070480753229</v>
+        <v>1.029719229535222</v>
       </c>
       <c r="L23">
-        <v>1.020710578656452</v>
+        <v>1.020972271020338</v>
       </c>
       <c r="M23">
-        <v>1.020513112638583</v>
+        <v>1.020762307113785</v>
       </c>
       <c r="N23">
-        <v>1.02322253032989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011193951635882</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032143345064617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9981882321234063</v>
+        <v>0.9971011369627804</v>
       </c>
       <c r="D24">
-        <v>1.017018693366982</v>
+        <v>1.018287686985068</v>
       </c>
       <c r="E24">
-        <v>1.011431734934017</v>
+        <v>1.01054434184941</v>
       </c>
       <c r="F24">
-        <v>1.012269598474431</v>
+        <v>1.01131129977052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042277938535074</v>
+        <v>1.042533472457128</v>
       </c>
       <c r="J24">
-        <v>1.025756203383364</v>
+        <v>1.024711234709054</v>
       </c>
       <c r="K24">
-        <v>1.030753390925531</v>
+        <v>1.032001085246814</v>
       </c>
       <c r="L24">
-        <v>1.025261027196738</v>
+        <v>1.024388783226197</v>
       </c>
       <c r="M24">
-        <v>1.026084618644395</v>
+        <v>1.025142646025894</v>
       </c>
       <c r="N24">
-        <v>1.027212894848049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012116281310795</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033749212689461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005867885182829</v>
+        <v>1.003372429055678</v>
       </c>
       <c r="D25">
-        <v>1.022597715886629</v>
+        <v>1.022296921375525</v>
       </c>
       <c r="E25">
-        <v>1.018024459764019</v>
+        <v>1.015877984425089</v>
       </c>
       <c r="F25">
-        <v>1.020028854118896</v>
+        <v>1.01775188923101</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044481970456856</v>
+        <v>1.043924050840709</v>
       </c>
       <c r="J25">
-        <v>1.030199372530655</v>
+        <v>1.027786828104402</v>
       </c>
       <c r="K25">
-        <v>1.034855074707248</v>
+        <v>1.034558692940562</v>
       </c>
       <c r="L25">
-        <v>1.030349267468978</v>
+        <v>1.028234715833634</v>
       </c>
       <c r="M25">
-        <v>1.032324005345019</v>
+        <v>1.030080741284921</v>
       </c>
       <c r="N25">
-        <v>1.031662373805168</v>
+        <v>1.013151123287087</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035554712839319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008200977302683</v>
+        <v>1.007980751678411</v>
       </c>
       <c r="D2">
-        <v>1.025382008890122</v>
+        <v>1.024742637903408</v>
       </c>
       <c r="E2">
-        <v>1.020005526332485</v>
+        <v>1.019814278258869</v>
       </c>
       <c r="F2">
-        <v>1.022738712159331</v>
+        <v>1.02253655548381</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044957166238515</v>
+        <v>1.044709075158872</v>
       </c>
       <c r="J2">
-        <v>1.030139135117828</v>
+        <v>1.02992535216601</v>
       </c>
       <c r="K2">
-        <v>1.036498704420025</v>
+        <v>1.035867703279465</v>
       </c>
       <c r="L2">
-        <v>1.031193014160446</v>
+        <v>1.031004301506341</v>
       </c>
       <c r="M2">
-        <v>1.033890095431965</v>
+        <v>1.033690600896408</v>
       </c>
       <c r="N2">
-        <v>1.013940648653203</v>
+        <v>1.015126698108511</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036878003869605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036440623491569</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021629452489636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011637100864004</v>
+        <v>1.011307901800932</v>
       </c>
       <c r="D3">
-        <v>1.027595997669864</v>
+        <v>1.026807379340436</v>
       </c>
       <c r="E3">
-        <v>1.02295613350566</v>
+        <v>1.02266733226027</v>
       </c>
       <c r="F3">
-        <v>1.026301565259756</v>
+        <v>1.025997455730424</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045682725899902</v>
+        <v>1.045362025257855</v>
       </c>
       <c r="J3">
-        <v>1.031815476707681</v>
+        <v>1.031494977882347</v>
       </c>
       <c r="K3">
-        <v>1.037887550517439</v>
+        <v>1.037108370413496</v>
       </c>
       <c r="L3">
-        <v>1.033303476066895</v>
+        <v>1.033018168148881</v>
       </c>
       <c r="M3">
-        <v>1.036608619414418</v>
+        <v>1.036308158749081</v>
       </c>
       <c r="N3">
-        <v>1.014504335264251</v>
+        <v>1.015546289555618</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037857371303172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037314939378458</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021861690145257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013824482533344</v>
+        <v>1.013426564558575</v>
       </c>
       <c r="D4">
-        <v>1.029009471292627</v>
+        <v>1.028126243450514</v>
       </c>
       <c r="E4">
-        <v>1.024840095438621</v>
+        <v>1.024489730992576</v>
       </c>
       <c r="F4">
-        <v>1.028576460368165</v>
+        <v>1.02820808284193</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046137287090028</v>
+        <v>1.045770522503403</v>
       </c>
       <c r="J4">
-        <v>1.032881047717546</v>
+        <v>1.032492943426853</v>
       </c>
       <c r="K4">
-        <v>1.038769944312052</v>
+        <v>1.037896658912875</v>
       </c>
       <c r="L4">
-        <v>1.034647688419133</v>
+        <v>1.034301305136804</v>
       </c>
       <c r="M4">
-        <v>1.038341805137523</v>
+        <v>1.037977576158611</v>
       </c>
       <c r="N4">
-        <v>1.014862632850297</v>
+        <v>1.01581308731494</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038482199089812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037873308962645</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022006942783281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014738181602067</v>
+        <v>1.014311710315362</v>
       </c>
       <c r="D5">
-        <v>1.029602950252585</v>
+        <v>1.028680342825295</v>
       </c>
       <c r="E5">
-        <v>1.025628530690684</v>
+        <v>1.025252576380602</v>
       </c>
       <c r="F5">
-        <v>1.029528128361679</v>
+        <v>1.02913305245731</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046326703813197</v>
+        <v>1.045940747605579</v>
       </c>
       <c r="J5">
-        <v>1.033326983641526</v>
+        <v>1.032910719789329</v>
       </c>
       <c r="K5">
-        <v>1.039140771460954</v>
+        <v>1.038228277178254</v>
       </c>
       <c r="L5">
-        <v>1.035210076766076</v>
+        <v>1.034838280120035</v>
       </c>
       <c r="M5">
-        <v>1.039066768899466</v>
+        <v>1.038676021659115</v>
       </c>
       <c r="N5">
-        <v>1.015012775939509</v>
+        <v>1.015924941063578</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038751588383026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038115685314113</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022067900800135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014894164034291</v>
+        <v>1.014462830334385</v>
       </c>
       <c r="D6">
-        <v>1.029706874232057</v>
+        <v>1.028777606685932</v>
       </c>
       <c r="E6">
-        <v>1.025763378891828</v>
+        <v>1.025383065471415</v>
       </c>
       <c r="F6">
-        <v>1.029690419843538</v>
+        <v>1.02929079682204</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046360545359096</v>
+        <v>1.045971330477017</v>
       </c>
       <c r="J6">
-        <v>1.033404579452702</v>
+        <v>1.032983517130017</v>
       </c>
       <c r="K6">
-        <v>1.039207299676113</v>
+        <v>1.038288172264682</v>
       </c>
       <c r="L6">
-        <v>1.03530699096426</v>
+        <v>1.034930864071447</v>
       </c>
       <c r="M6">
-        <v>1.039191024641936</v>
+        <v>1.038795759709418</v>
       </c>
       <c r="N6">
-        <v>1.01503914681809</v>
+        <v>1.015944626634997</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03880738849993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038167664028637</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022079379841458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013844925240027</v>
+        <v>1.013453004606453</v>
       </c>
       <c r="D7">
-        <v>1.029029572248851</v>
+        <v>1.028150336531976</v>
       </c>
       <c r="E7">
-        <v>1.024858197044507</v>
+        <v>1.024513314641784</v>
       </c>
       <c r="F7">
-        <v>1.028597029588576</v>
+        <v>1.0282343496229</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046145847935767</v>
+        <v>1.045781804039298</v>
       </c>
       <c r="J7">
-        <v>1.032895022882451</v>
+        <v>1.03251276389613</v>
       </c>
       <c r="K7">
-        <v>1.038786931013842</v>
+        <v>1.037917588975717</v>
       </c>
       <c r="L7">
-        <v>1.034662680474158</v>
+        <v>1.034321715438052</v>
       </c>
       <c r="M7">
-        <v>1.038359252975084</v>
+        <v>1.038000655801153</v>
       </c>
       <c r="N7">
-        <v>1.014868004973973</v>
+        <v>1.015844658310485</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038514356017751</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037910252928338</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022012653378809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009380040644831</v>
+        <v>1.009142672899672</v>
       </c>
       <c r="D8">
-        <v>1.026149257918775</v>
+        <v>1.025473325430105</v>
       </c>
       <c r="E8">
-        <v>1.021017432758248</v>
+        <v>1.020811226974689</v>
       </c>
       <c r="F8">
-        <v>1.023958996492634</v>
+        <v>1.023741095717492</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045212941125803</v>
+        <v>1.044949525745045</v>
       </c>
       <c r="J8">
-        <v>1.030719603203681</v>
+        <v>1.03048894936275</v>
       </c>
       <c r="K8">
-        <v>1.036986297987422</v>
+        <v>1.036318954853191</v>
       </c>
       <c r="L8">
-        <v>1.031920040890613</v>
+        <v>1.031716486974789</v>
       </c>
       <c r="M8">
-        <v>1.034823920547194</v>
+        <v>1.034608801997022</v>
       </c>
       <c r="N8">
-        <v>1.014136707834713</v>
+        <v>1.015356261797998</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037245727868999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036784917495834</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021717583543509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00121219830488</v>
+        <v>1.001241001486366</v>
       </c>
       <c r="D9">
-        <v>1.020903114212608</v>
+        <v>1.020586434829231</v>
       </c>
       <c r="E9">
-        <v>1.01403621776428</v>
+        <v>1.014068025286306</v>
       </c>
       <c r="F9">
-        <v>1.015530013933002</v>
+        <v>1.015561341587733</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043442864296323</v>
+        <v>1.043354404926262</v>
       </c>
       <c r="J9">
-        <v>1.026722223223994</v>
+        <v>1.026750012774154</v>
       </c>
       <c r="K9">
-        <v>1.033665918044445</v>
+        <v>1.033354113407042</v>
       </c>
       <c r="L9">
-        <v>1.026905599112686</v>
+        <v>1.026936908711316</v>
       </c>
       <c r="M9">
-        <v>1.02837605403686</v>
+        <v>1.028406893122511</v>
       </c>
       <c r="N9">
-        <v>1.012791782862799</v>
+        <v>1.014365757003603</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034894809136901</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034685109168966</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021148418186416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9955602951742308</v>
+        <v>0.9958075871167963</v>
       </c>
       <c r="D10">
-        <v>1.017300371122896</v>
+        <v>1.017256333777022</v>
       </c>
       <c r="E10">
-        <v>1.009238132475745</v>
+        <v>1.009465521744213</v>
       </c>
       <c r="F10">
-        <v>1.009734872492539</v>
+        <v>1.009971377106834</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042182882812453</v>
+        <v>1.042230586418599</v>
       </c>
       <c r="J10">
-        <v>1.023951174779216</v>
+        <v>1.024188534296598</v>
       </c>
       <c r="K10">
-        <v>1.031364133117006</v>
+        <v>1.031320856326286</v>
       </c>
       <c r="L10">
-        <v>1.023442569101151</v>
+        <v>1.023665950826913</v>
       </c>
       <c r="M10">
-        <v>1.023930557524452</v>
+        <v>1.024162899308411</v>
       </c>
       <c r="N10">
-        <v>1.011859848011569</v>
+        <v>1.013797612629902</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033284153284049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033265999035421</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020748858120991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9930697801958253</v>
+        <v>0.993462757981853</v>
       </c>
       <c r="D11">
-        <v>1.015727420708906</v>
+        <v>1.015839105190186</v>
       </c>
       <c r="E11">
-        <v>1.007132730485292</v>
+        <v>1.00749150501596</v>
       </c>
       <c r="F11">
-        <v>1.007189710213398</v>
+        <v>1.007563844769351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041624447145828</v>
+        <v>1.041755274080841</v>
       </c>
       <c r="J11">
-        <v>1.022733733669969</v>
+        <v>1.023110045556152</v>
       </c>
       <c r="K11">
-        <v>1.030358713149373</v>
+        <v>1.030468375681916</v>
       </c>
       <c r="L11">
-        <v>1.021921375988108</v>
+        <v>1.02227351201166</v>
       </c>
       <c r="M11">
-        <v>1.021977300992227</v>
+        <v>1.022344513988655</v>
       </c>
       <c r="N11">
-        <v>1.011451469218746</v>
+        <v>1.01373792941261</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032606216082201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032699415412778</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020583658501789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9921306302748814</v>
+        <v>0.9925832514138637</v>
       </c>
       <c r="D12">
-        <v>1.015130738129478</v>
+        <v>1.015304493389108</v>
       </c>
       <c r="E12">
-        <v>1.006339600656019</v>
+        <v>1.006752266824456</v>
       </c>
       <c r="F12">
-        <v>1.006231696908005</v>
+        <v>1.00666227592136</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041409837108698</v>
+        <v>1.041574242531411</v>
       </c>
       <c r="J12">
-        <v>1.022271810777063</v>
+        <v>1.022704852328931</v>
       </c>
       <c r="K12">
-        <v>1.029973686949072</v>
+        <v>1.030144242094812</v>
       </c>
       <c r="L12">
-        <v>1.021346343511231</v>
+        <v>1.021751237409843</v>
       </c>
       <c r="M12">
-        <v>1.021240473426188</v>
+        <v>1.021662940710824</v>
       </c>
       <c r="N12">
-        <v>1.011295985610489</v>
+        <v>1.013731156386282</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032333988420891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032470245951921</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020519967956183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9923313430271805</v>
+        <v>0.9927710105161865</v>
       </c>
       <c r="D13">
-        <v>1.015257325986365</v>
+        <v>1.015417649724906</v>
       </c>
       <c r="E13">
-        <v>1.006508958975771</v>
+        <v>1.006909918415631</v>
       </c>
       <c r="F13">
-        <v>1.006436444625992</v>
+        <v>1.006854762236763</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041455210404015</v>
+        <v>1.041612341287883</v>
       </c>
       <c r="J13">
-        <v>1.022370015262061</v>
+        <v>1.022790743817545</v>
       </c>
       <c r="K13">
-        <v>1.030054870439251</v>
+        <v>1.030212252222287</v>
       </c>
       <c r="L13">
-        <v>1.021468892375381</v>
+        <v>1.021862328559132</v>
       </c>
       <c r="M13">
-        <v>1.02139773945804</v>
+        <v>1.021808206818979</v>
       </c>
       <c r="N13">
-        <v>1.011328932544279</v>
+        <v>1.013731574348286</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032388886649515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032515586816381</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.0205331704426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929918434526838</v>
+        <v>0.9933896753150416</v>
       </c>
       <c r="D14">
-        <v>1.015677503765889</v>
+        <v>1.015794263193861</v>
       </c>
       <c r="E14">
-        <v>1.007066847283412</v>
+        <v>1.007430006668786</v>
       </c>
       <c r="F14">
-        <v>1.007110208201771</v>
+        <v>1.007488935287889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041606428170326</v>
+        <v>1.041739996229225</v>
       </c>
       <c r="J14">
-        <v>1.022695179752369</v>
+        <v>1.023076112036763</v>
       </c>
       <c r="K14">
-        <v>1.030326289489589</v>
+        <v>1.030440932072475</v>
       </c>
       <c r="L14">
-        <v>1.021873508197633</v>
+        <v>1.022229938029685</v>
       </c>
       <c r="M14">
-        <v>1.021916065280401</v>
+        <v>1.022287775263911</v>
       </c>
       <c r="N14">
-        <v>1.011438445651795</v>
+        <v>1.013736901633872</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032582219736947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032678836732295</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020578196992143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,93 +1167,111 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9933999047676749</v>
+        <v>0.9937725100410038</v>
       </c>
       <c r="D15">
-        <v>1.015938993823946</v>
+        <v>1.016029321130739</v>
       </c>
       <c r="E15">
-        <v>1.007411858899792</v>
+        <v>1.007752234047758</v>
       </c>
       <c r="F15">
-        <v>1.007526514774733</v>
+        <v>1.007881378246131</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041700779186248</v>
+        <v>1.041820085427005</v>
       </c>
       <c r="J15">
-        <v>1.022897088492109</v>
+        <v>1.023254002075341</v>
       </c>
       <c r="K15">
-        <v>1.030496162545683</v>
+        <v>1.030584864444412</v>
       </c>
       <c r="L15">
-        <v>1.022124180526652</v>
+        <v>1.022458296937712</v>
       </c>
       <c r="M15">
-        <v>1.022236727521364</v>
+        <v>1.022585067904449</v>
       </c>
       <c r="N15">
-        <v>1.01150666171835</v>
+        <v>1.013742992746889</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032708218455676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032787062979326</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020606855680631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9957436396703685</v>
+        <v>0.9959811988434286</v>
       </c>
       <c r="D16">
-        <v>1.017431687923605</v>
+        <v>1.017377168704121</v>
       </c>
       <c r="E16">
-        <v>1.009394816784024</v>
+        <v>1.009613418575973</v>
       </c>
       <c r="F16">
-        <v>1.009921241847326</v>
+        <v>1.010148544596162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042233305943328</v>
+        <v>1.042275368286645</v>
       </c>
       <c r="J16">
-        <v>1.024049825010123</v>
+        <v>1.024277878091073</v>
       </c>
       <c r="K16">
-        <v>1.031457407394262</v>
+        <v>1.031403826703616</v>
       </c>
       <c r="L16">
-        <v>1.023560306064688</v>
+        <v>1.023775067984965</v>
       </c>
       <c r="M16">
-        <v>1.024077487808047</v>
+        <v>1.024300803283369</v>
       </c>
       <c r="N16">
-        <v>1.011894776587202</v>
+        <v>1.013810396815506</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033391035799647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033369578439786</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020767826879096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9971991089738425</v>
+        <v>0.9973626718399141</v>
       </c>
       <c r="D17">
-        <v>1.01836035957064</v>
+        <v>1.018222999064516</v>
       </c>
       <c r="E17">
-        <v>1.010628397318657</v>
+        <v>1.010780425646556</v>
       </c>
       <c r="F17">
-        <v>1.011410810038105</v>
+        <v>1.011568360075758</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042561797472508</v>
+        <v>1.042560521862564</v>
       </c>
       <c r="J17">
-        <v>1.024765348433921</v>
+        <v>1.024922577304648</v>
       </c>
       <c r="K17">
-        <v>1.032053945540587</v>
+        <v>1.031918883236503</v>
       </c>
       <c r="L17">
-        <v>1.024452603691113</v>
+        <v>1.024602038843138</v>
       </c>
       <c r="M17">
-        <v>1.0252216813907</v>
+        <v>1.025376549452523</v>
       </c>
       <c r="N17">
-        <v>1.012135690510601</v>
+        <v>1.013888861368706</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.0338154093369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033736586811983</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020869059029206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9980369696265867</v>
+        <v>0.9981617760989301</v>
       </c>
       <c r="D18">
-        <v>1.018890832745348</v>
+        <v>1.018708452656301</v>
       </c>
       <c r="E18">
-        <v>1.011338837406029</v>
+        <v>1.011456059381834</v>
       </c>
       <c r="F18">
-        <v>1.012269548164094</v>
+        <v>1.012390620949755</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04274717243948</v>
+        <v>1.042722732956726</v>
       </c>
       <c r="J18">
-        <v>1.025174343564602</v>
+        <v>1.025294409645695</v>
       </c>
       <c r="K18">
-        <v>1.032391262694826</v>
+        <v>1.03221188304547</v>
       </c>
       <c r="L18">
-        <v>1.024964676581891</v>
+        <v>1.025079933513548</v>
       </c>
       <c r="M18">
-        <v>1.02587980157945</v>
+        <v>1.025998849584513</v>
       </c>
       <c r="N18">
-        <v>1.012272846671501</v>
+        <v>1.013947055924965</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.03404223059865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033930937133027</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020925787647909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.998326355174907</v>
+        <v>0.9984384650732042</v>
       </c>
       <c r="D19">
-        <v>1.019077821132767</v>
+        <v>1.01888044893965</v>
       </c>
       <c r="E19">
-        <v>1.011584690364927</v>
+        <v>1.011690515876915</v>
       </c>
       <c r="F19">
-        <v>1.012565993219146</v>
+        <v>1.012675121604041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042813334478121</v>
+        <v>1.042781220882841</v>
       </c>
       <c r="J19">
-        <v>1.025317742273366</v>
+        <v>1.025425622317625</v>
       </c>
       <c r="K19">
-        <v>1.032512353651815</v>
+        <v>1.032318209740529</v>
       </c>
       <c r="L19">
-        <v>1.025142921500348</v>
+        <v>1.025246983584621</v>
       </c>
       <c r="M19">
-        <v>1.026107890581847</v>
+        <v>1.026215205045021</v>
       </c>
       <c r="N19">
-        <v>1.012321367488022</v>
+        <v>1.013970870830725</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034134259372875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034013148586213</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020947067012434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9970430302900163</v>
+        <v>0.9972141293046216</v>
       </c>
       <c r="D20">
-        <v>1.018260343722665</v>
+        <v>1.018131574438394</v>
       </c>
       <c r="E20">
-        <v>1.01049599821279</v>
+        <v>1.010654801167451</v>
       </c>
       <c r="F20">
-        <v>1.011251013649773</v>
+        <v>1.011415662515482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042526428007192</v>
+        <v>1.04252961310626</v>
       </c>
       <c r="J20">
-        <v>1.024688415965503</v>
+        <v>1.024852865605721</v>
       </c>
       <c r="K20">
-        <v>1.031989530593985</v>
+        <v>1.031862922426133</v>
       </c>
       <c r="L20">
-        <v>1.024356765216939</v>
+        <v>1.024512850816926</v>
       </c>
       <c r="M20">
-        <v>1.025098871057121</v>
+        <v>1.025260707988502</v>
       </c>
       <c r="N20">
-        <v>1.012109744356123</v>
+        <v>1.013878839531601</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03376852559392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033695551282507</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02085799180365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9928038980014949</v>
+        <v>0.9932301811084101</v>
       </c>
       <c r="D21">
-        <v>1.015562898072827</v>
+        <v>1.015704091082558</v>
       </c>
       <c r="E21">
-        <v>1.0069085727984</v>
+        <v>1.007297693143886</v>
       </c>
       <c r="F21">
-        <v>1.006918075135869</v>
+        <v>1.007323887023208</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041566506704622</v>
+        <v>1.041714648896703</v>
       </c>
       <c r="J21">
-        <v>1.022605597060884</v>
+        <v>1.023013698068755</v>
       </c>
       <c r="K21">
-        <v>1.030255305708949</v>
+        <v>1.030393929852208</v>
       </c>
       <c r="L21">
-        <v>1.021760231654873</v>
+        <v>1.022142115023286</v>
       </c>
       <c r="M21">
-        <v>1.021769557178095</v>
+        <v>1.022167822002968</v>
       </c>
       <c r="N21">
-        <v>1.011408881747102</v>
+        <v>1.013802160827657</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032545590462138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032660475506844</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020571097001032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9900815423011605</v>
+        <v>0.9906711526788652</v>
       </c>
       <c r="D22">
-        <v>1.013830143729505</v>
+        <v>1.014144414446424</v>
       </c>
       <c r="E22">
-        <v>1.004611370301453</v>
+        <v>1.00514800989535</v>
       </c>
       <c r="F22">
-        <v>1.004144075317787</v>
+        <v>1.004704486147578</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040938987693841</v>
+        <v>1.041179996308508</v>
       </c>
       <c r="J22">
-        <v>1.021263324715156</v>
+        <v>1.02182633000467</v>
       </c>
       <c r="K22">
-        <v>1.029132512932686</v>
+        <v>1.029440780586916</v>
       </c>
       <c r="L22">
-        <v>1.020092025234148</v>
+        <v>1.020618168919539</v>
       </c>
       <c r="M22">
-        <v>1.019633881868523</v>
+        <v>1.020183318811647</v>
       </c>
       <c r="N22">
-        <v>1.010956465684822</v>
+        <v>1.013740484460014</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031738173994851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031971706415355</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020381487795265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9915219292173052</v>
+        <v>0.9920142750477113</v>
       </c>
       <c r="D23">
-        <v>1.014740418468798</v>
+        <v>1.014955133012044</v>
       </c>
       <c r="E23">
-        <v>1.005825500072125</v>
+        <v>1.006274098767632</v>
       </c>
       <c r="F23">
-        <v>1.005611455606177</v>
+        <v>1.006079665150025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041268004356131</v>
+        <v>1.041454696068594</v>
       </c>
       <c r="J23">
-        <v>1.021970088889838</v>
+        <v>1.022440866702544</v>
       </c>
       <c r="K23">
-        <v>1.029719229535222</v>
+        <v>1.029929946260043</v>
       </c>
       <c r="L23">
-        <v>1.020972271020338</v>
+        <v>1.021412324963496</v>
       </c>
       <c r="M23">
-        <v>1.020762307113785</v>
+        <v>1.021221593626162</v>
       </c>
       <c r="N23">
-        <v>1.011193951635882</v>
+        <v>1.013729315155547</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032143345064617</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032306961724291</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020477127562328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9971011369627804</v>
+        <v>0.9972693732061537</v>
       </c>
       <c r="D24">
-        <v>1.018287686985068</v>
+        <v>1.018155505206245</v>
       </c>
       <c r="E24">
-        <v>1.01054434184941</v>
+        <v>1.010700583886736</v>
       </c>
       <c r="F24">
-        <v>1.01131129977052</v>
+        <v>1.011473262829161</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042533472457128</v>
+        <v>1.042534957321892</v>
       </c>
       <c r="J24">
-        <v>1.024711234709054</v>
+        <v>1.024872943071933</v>
       </c>
       <c r="K24">
-        <v>1.032001085246814</v>
+        <v>1.03187111886673</v>
       </c>
       <c r="L24">
-        <v>1.024388783226197</v>
+        <v>1.0245423554879</v>
       </c>
       <c r="M24">
-        <v>1.025142646025894</v>
+        <v>1.025301846990126</v>
       </c>
       <c r="N24">
-        <v>1.012116281310795</v>
+        <v>1.013879362699499</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033749212689461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033671191842772</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020857805410337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003372429055678</v>
+        <v>1.003321977160326</v>
       </c>
       <c r="D25">
-        <v>1.022296921375525</v>
+        <v>1.021879180272178</v>
       </c>
       <c r="E25">
-        <v>1.015877984425089</v>
+        <v>1.015838808034207</v>
       </c>
       <c r="F25">
-        <v>1.01775188923101</v>
+        <v>1.017708853971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043924050840709</v>
+        <v>1.04378535046076</v>
       </c>
       <c r="J25">
-        <v>1.027786828104402</v>
+        <v>1.027738058394976</v>
       </c>
       <c r="K25">
-        <v>1.034558692940562</v>
+        <v>1.03414708569381</v>
       </c>
       <c r="L25">
-        <v>1.028234715833634</v>
+        <v>1.028196123692565</v>
       </c>
       <c r="M25">
-        <v>1.030080741284921</v>
+        <v>1.03003834482551</v>
       </c>
       <c r="N25">
-        <v>1.013151123287087</v>
+        <v>1.014598136565148</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035554712839319</v>
+        <v>1.035277249066306</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021304121784855</v>
       </c>
     </row>
   </sheetData>
